--- a/RoadMap_AT.xlsx
+++ b/RoadMap_AT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003J72744\Desktop\TestingAcademyAT\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660C452-A19D-43B1-A0E9-4AC53C52B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E544FE2-15F2-444E-9589-04478D9564E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Manual Testing</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavan </t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KHnnYtQF3os&amp;list=PL9ok7C7Yn9A9jiuK3iGfC6lFCQtxxD9sX&amp;index=1</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>InProgress</t>
-  </si>
-  <si>
-    <t>https://youtube.com/playlist?list=PLUDwpEzHYYLseflPNg0bUKfLmAbO2JnE9&amp;si=kexmHCNUKS_TPca5</t>
   </si>
   <si>
     <t>https://courses.thetestingacademy.com/courses/learn-git-basics-in-less-than-2-hours/dashboard</t>
@@ -109,35 +103,17 @@
     <t>Youtube nandeesh.apjkalam@gmail.com</t>
   </si>
   <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!124</t>
-  </si>
-  <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!125</t>
-  </si>
-  <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!126</t>
-  </si>
-  <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!127</t>
-  </si>
-  <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!128</t>
-  </si>
-  <si>
-    <t>nandeesh.apjkalam@gmail.com
-Apjkalam!129</t>
+    <t>https://courses.thetestingacademy.com/courses/software-tester-blueprint/dashboard</t>
+  </si>
+  <si>
+    <t>https://courses.thetestingacademy.com/courses/7x-live-job-ready-automation-tester-blueprint-with-java-by-pramod-dutta/dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +125,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,21 +186,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,191 +489,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="35.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="63.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.6328125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{4C54EBC1-A569-40BB-9DD1-E139512DF700}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{4DB96B7B-2F01-477F-B1E0-7C90404B9ABF}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{B0072D36-E5E2-4707-ABD0-48259CE4130D}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{13EE7AD4-5299-45FF-B25F-D408E9328EFC}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{6C682979-F9F2-4143-B01E-433990995507}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{58F8581D-5BDD-4030-A340-764FD061DFA1}"/>
-    <hyperlink ref="F3:F8" r:id="rId7" display="nandeesh.apjkalam@gmail.com_x000a_Apjkalam!123" xr:uid="{5C1E2E9E-5E7A-4F28-8B51-5D5105810AA0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RoadMap_AT.xlsx
+++ b/RoadMap_AT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003J72744\Desktop\TestingAcademyAT\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E544FE2-15F2-444E-9589-04478D9564E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79491-8155-44B1-887E-042EC22B3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Manual Testing</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>https://courses.thetestingacademy.com/courses/7x-live-job-ready-automation-tester-blueprint-with-java-by-pramod-dutta/dashboard</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,11 +188,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,7 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,17 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="3" width="63.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.6328125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
@@ -529,30 +548,30 @@
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -563,11 +582,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -578,11 +597,11 @@
         <v>26</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -593,11 +612,11 @@
         <v>26</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -608,11 +627,11 @@
         <v>26</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -623,7 +642,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -634,37 +653,37 @@
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -672,6 +691,21 @@
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/RoadMap_AT.xlsx
+++ b/RoadMap_AT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003J72744\Desktop\TestingAcademyAT\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79491-8155-44B1-887E-042EC22B3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B6E67-B113-4695-A017-BE5F65D170EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,8 +210,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -225,11 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +693,7 @@
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -694,7 +704,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -710,6 +720,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{695DEA9F-515E-4D63-8028-083331CD58DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>